--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/ShiftFormer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C886F4-662C-274D-8791-9D93CCBAAE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5E40A-C46E-964C-81D8-E500E4F6E9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{35DAAE1C-E0BD-D444-AED0-7F1899510083}"/>
   </bookViews>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/ShiftFormer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5E40A-C46E-964C-81D8-E500E4F6E9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200928D4-0287-894F-A7E0-6651F921C805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{35DAAE1C-E0BD-D444-AED0-7F1899510083}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{35DAAE1C-E0BD-D444-AED0-7F1899510083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
                   <c:v>73.378</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.054000000000002</c:v>
+                  <c:v>73.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>73.534000000000006</c:v>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>73.054000000000002</v>
+        <v>73.239999999999995</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuma/code/ShiftFormer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200928D4-0287-894F-A7E0-6651F921C805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234A0B0F-E6FB-A443-8CB3-A9CB837DA8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{35DAAE1C-E0BD-D444-AED0-7F1899510083}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{35DAAE1C-E0BD-D444-AED0-7F1899510083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,8 @@
         <c:axId val="761401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="73"/>
+          <c:max val="73.599999999999994"/>
+          <c:min val="73.099999999999994"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -314,7 +315,11 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -955,8 +960,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1284,7 +1289,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
